--- a/tests/data.gui/stable/spectrophotometry/dsl.8/kev.constants.data.xlsx
+++ b/tests/data.gui/stable/spectrophotometry/dsl.8/kev.constants.data.xlsx
@@ -278,7 +278,7 @@
     <t xml:space="preserve">10.529052734375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170215575862572</t>
+    <t xml:space="preserve">0.170205669575028</t>
   </si>
   <si>
     <t xml:space="preserve">Adj. R^2</t>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.988365436872523</v>
+        <v>0.988365436608685</v>
       </c>
     </row>
   </sheetData>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>18903.3667995359</v>
+        <v>18903.366799468</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4208.30104407369</v>
+        <v>4208.30104435871</v>
       </c>
     </row>
     <row r="3">
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>9080.27170511214</v>
+        <v>9080.27170458955</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>37222.5056575374</v>
+        <v>37222.5056605611</v>
       </c>
     </row>
     <row r="4">
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3008.78328624181</v>
+        <v>3008.78328549618</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>52323.1373523554</v>
+        <v>52323.1373567398</v>
       </c>
     </row>
     <row r="5">
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>324.21270850459</v>
+        <v>324.212708518424</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1788.04887141036</v>
+        <v>1788.0488715223</v>
       </c>
     </row>
     <row r="6">
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>116.924030370768</v>
+        <v>116.924030600437</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>644.841719837279</v>
+        <v>644.841721116772</v>
       </c>
     </row>
     <row r="7">
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.797159064772</v>
+        <v>159.797159273368</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>881.289111824877</v>
+        <v>881.289112992859</v>
       </c>
     </row>
   </sheetData>
@@ -2177,60 +2177,60 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.47241493854237e-08</v>
+        <v>0.0000000547241493854237</v>
       </c>
       <c r="B2" t="n">
-        <v>4.35570981644346e-06</v>
+        <v>0.00000435570981644345</v>
       </c>
       <c r="C2" t="n">
-        <v>9.37932625943531e-05</v>
+        <v>0.0000937932625943531</v>
       </c>
       <c r="D2" t="n">
-        <v>1.09343715206815e-08</v>
+        <v>0.000000010934371520623</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0719843286270934</v>
+        <v>0.0719843286270932</v>
       </c>
       <c r="F2" t="n">
         <v>0.0168041665875559</v>
       </c>
       <c r="G2" t="n">
-        <v>6.66186761335989e-08</v>
+        <v>0.0000000666186761335989</v>
       </c>
       <c r="H2" t="n">
-        <v>1.39968975712222e-06</v>
+        <v>0.00000139968975711472</v>
       </c>
       <c r="I2" t="n">
-        <v>2.83968222479716e-06</v>
+        <v>0.00000283968222478194</v>
       </c>
       <c r="J2" t="n">
-        <v>2.9121303075588e-09</v>
+        <v>0.00000000291213030754323</v>
       </c>
       <c r="K2" t="n">
-        <v>2.45260597795893e-10</v>
+        <v>0.000000000245260597794579</v>
       </c>
       <c r="L2" t="n">
-        <v>2.24189261417123e-09</v>
+        <v>0.00000000224189261415924</v>
       </c>
       <c r="M2" t="n">
-        <v>2.14867951324957e-09</v>
+        <v>0.00000000214867951324957</v>
       </c>
       <c r="N2" t="n">
-        <v>3.25229436308702e-06</v>
+        <v>0.00000325229436306964</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.47302213403886e-08</v>
+        <v>0.0000000547302213403884</v>
       </c>
       <c r="B3" t="n">
-        <v>4.17329463491674e-06</v>
+        <v>0.00000417329463491675</v>
       </c>
       <c r="C3" t="n">
-        <v>8.77444526124009e-05</v>
+        <v>0.0000877444526124324</v>
       </c>
       <c r="D3" t="n">
-        <v>2.41126003901159e-08</v>
+        <v>0.0000000241126003756057</v>
       </c>
       <c r="E3" t="n">
         <v>0.0689773096726754</v>
@@ -2239,42 +2239,42 @@
         <v>0.016103988660061</v>
       </c>
       <c r="G3" t="n">
-        <v>6.38499645663374e-08</v>
+        <v>0.0000000638499645663374</v>
       </c>
       <c r="H3" t="n">
-        <v>2.95767397773853e-06</v>
+        <v>0.00000295767397595869</v>
       </c>
       <c r="I3" t="n">
-        <v>5.7498504865886e-06</v>
+        <v>0.00000574985048312858</v>
       </c>
       <c r="J3" t="n">
-        <v>6.15428359213274e-09</v>
+        <v>0.0000000061542835884293</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9671921548847e-10</v>
+        <v>0.000000000496719215189558</v>
       </c>
       <c r="L3" t="n">
-        <v>4.94329859377958e-09</v>
+        <v>0.00000000494329859080487</v>
       </c>
       <c r="M3" t="n">
-        <v>2.01010928199564e-09</v>
+        <v>0.00000000201010928199636</v>
       </c>
       <c r="N3" t="n">
-        <v>6.27676864291547e-06</v>
+        <v>0.00000627676863914283</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.47370400304656e-08</v>
+        <v>0.0000000547370400304656</v>
       </c>
       <c r="B4" t="n">
-        <v>3.99085143357563e-06</v>
+        <v>0.00000399085143357563</v>
       </c>
       <c r="C4" t="n">
-        <v>8.21192746456587e-05</v>
+        <v>0.0000821192746456587</v>
       </c>
       <c r="D4" t="n">
-        <v>3.98651429895903e-08</v>
+        <v>0.0000000398651429895903</v>
       </c>
       <c r="E4" t="n">
         <v>0.0659700585366921</v>
@@ -2283,42 +2283,42 @@
         <v>0.0154038108879839</v>
       </c>
       <c r="G4" t="n">
-        <v>6.10814709221463e-08</v>
+        <v>0.0000000610814709221463</v>
       </c>
       <c r="H4" t="n">
-        <v>4.67670736399581e-06</v>
+        <v>0.00000467670736399581</v>
       </c>
       <c r="I4" t="n">
-        <v>8.69534994798863e-06</v>
+        <v>0.00000869534994798863</v>
       </c>
       <c r="J4" t="n">
-        <v>9.73243483107388e-09</v>
+        <v>0.00000000973243483107388</v>
       </c>
       <c r="K4" t="n">
-        <v>7.51362788204753e-10</v>
+        <v>0.000000000751362788204753</v>
       </c>
       <c r="L4" t="n">
-        <v>8.17169253083678e-09</v>
+        <v>0.00000000817169253083678</v>
       </c>
       <c r="M4" t="n">
-        <v>1.88124389954492e-09</v>
+        <v>0.00000000188124389954492</v>
       </c>
       <c r="N4" t="n">
-        <v>9.08942205544671e-06</v>
+        <v>0.00000908942205544671</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.47446900003897e-08</v>
+        <v>0.0000000547446900003897</v>
       </c>
       <c r="B5" t="n">
-        <v>3.80838339470497e-06</v>
+        <v>0.00000380838339470497</v>
       </c>
       <c r="C5" t="n">
-        <v>7.68608039278781e-05</v>
+        <v>0.0000768608039278781</v>
       </c>
       <c r="D5" t="n">
-        <v>5.86701921643845e-08</v>
+        <v>0.0000000586701921643845</v>
       </c>
       <c r="E5" t="n">
         <v>0.0629626014650262</v>
@@ -2327,86 +2327,86 @@
         <v>0.0147036333496759</v>
       </c>
       <c r="G5" t="n">
-        <v>5.83131719368715e-08</v>
+        <v>0.0000000583131719368715</v>
       </c>
       <c r="H5" t="n">
-        <v>6.56901380291097e-06</v>
+        <v>0.00000656901380291097</v>
       </c>
       <c r="I5" t="n">
-        <v>1.16568937543296e-05</v>
+        <v>0.0000116568937543296</v>
       </c>
       <c r="J5" t="n">
-        <v>1.36723187658721e-08</v>
+        <v>0.0000000136723187658721</v>
       </c>
       <c r="K5" t="n">
-        <v>1.00755053942074e-09</v>
+        <v>0.00000000100755053942074</v>
       </c>
       <c r="L5" t="n">
-        <v>1.20247348784719e-08</v>
+        <v>0.0000000120247348784719</v>
       </c>
       <c r="M5" t="n">
-        <v>1.76077929484102e-09</v>
+        <v>0.00000000176077929484102</v>
       </c>
       <c r="N5" t="n">
-        <v>1.17187176464148e-05</v>
+        <v>0.0000117187176464148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.47532422893176e-08</v>
+        <v>0.0000000547532422893176</v>
       </c>
       <c r="B6" t="n">
-        <v>3.6258977474258e-06</v>
+        <v>0.00000362589774742582</v>
       </c>
       <c r="C6" t="n">
-        <v>7.19369296452694e-05</v>
+        <v>0.0000719369296450179</v>
       </c>
       <c r="D6" t="n">
-        <v>8.10478469675075e-08</v>
+        <v>0.0000000810478469771869</v>
       </c>
       <c r="E6" t="n">
-        <v>0.059954998186884</v>
+        <v>0.0599549981868842</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0140034561503931</v>
+        <v>0.0140034561503932</v>
       </c>
       <c r="G6" t="n">
-        <v>5.55450135988678e-08</v>
+        <v>0.0000000555450135988682</v>
       </c>
       <c r="H6" t="n">
-        <v>8.64105713081455e-06</v>
+        <v>0.00000864105713184659</v>
       </c>
       <c r="I6" t="n">
-        <v>1.46013251002119e-05</v>
+        <v>0.0000146013251019558</v>
       </c>
       <c r="J6" t="n">
-        <v>1.79877448296964e-08</v>
+        <v>0.0000000179877448318449</v>
       </c>
       <c r="K6" t="n">
-        <v>1.26244350969482e-09</v>
+        <v>0.0000000012624435098456</v>
       </c>
       <c r="L6" t="n">
-        <v>1.66085470333374e-08</v>
+        <v>0.0000000166085470353209</v>
       </c>
       <c r="M6" t="n">
-        <v>1.64797985163779e-09</v>
+        <v>0.00000000164797985163203</v>
       </c>
       <c r="N6" t="n">
-        <v>1.41807111878497e-05</v>
+        <v>0.0000141807111894441</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.47627944008977e-08</v>
+        <v>0.0000000547627944008977</v>
       </c>
       <c r="B7" t="n">
-        <v>3.44340028454411e-06</v>
+        <v>0.00000344340028454411</v>
       </c>
       <c r="C7" t="n">
-        <v>6.73115842353328e-05</v>
+        <v>0.0000673115842353328</v>
       </c>
       <c r="D7" t="n">
-        <v>1.07666055902854e-07</v>
+        <v>0.000000107666055902854</v>
       </c>
       <c r="E7" t="n">
         <v>0.0569472965809393</v>
@@ -2415,42 +2415,42 @@
         <v>0.0133032794152533</v>
       </c>
       <c r="G7" t="n">
-        <v>5.2776953067108e-08</v>
+        <v>0.000000052776953067108</v>
       </c>
       <c r="H7" t="n">
-        <v>1.09031482171871e-05</v>
+        <v>0.0000109031482171871</v>
       </c>
       <c r="I7" t="n">
-        <v>1.74994753307167e-05</v>
+        <v>0.0000174994753307167</v>
       </c>
       <c r="J7" t="n">
-        <v>2.2700609442845e-08</v>
+        <v>0.000000022700609442845</v>
       </c>
       <c r="K7" t="n">
-        <v>1.5135481086827e-09</v>
+        <v>0.0000000015135481086827</v>
       </c>
       <c r="L7" t="n">
-        <v>2.20593749728243e-08</v>
+        <v>0.0000000220593749728243</v>
       </c>
       <c r="M7" t="n">
-        <v>1.54201930981277e-09</v>
+        <v>0.00000000154201930981277</v>
       </c>
       <c r="N7" t="n">
-        <v>1.64934368765196e-05</v>
+        <v>0.0000164934368765196</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.47734538624919e-08</v>
+        <v>0.0000000547734538624919</v>
       </c>
       <c r="B8" t="n">
-        <v>3.26089820405256e-06</v>
+        <v>0.00000326089820405256</v>
       </c>
       <c r="C8" t="n">
-        <v>6.29561601216983e-05</v>
+        <v>0.0000629561601216983</v>
       </c>
       <c r="D8" t="n">
-        <v>1.39329476890908e-07</v>
+        <v>0.000000139329476890908</v>
       </c>
       <c r="E8" t="n">
         <v>0.0539395561885733</v>
@@ -2459,42 +2459,42 @@
         <v>0.0126031033018204</v>
       </c>
       <c r="G8" t="n">
-        <v>5.0008936998791e-08</v>
+        <v>0.000000050008936998791</v>
       </c>
       <c r="H8" t="n">
-        <v>1.33644279920879e-05</v>
+        <v>0.0000133644279920879</v>
       </c>
       <c r="I8" t="n">
-        <v>2.03169140872757e-05</v>
+        <v>0.0000203169140872757</v>
       </c>
       <c r="J8" t="n">
-        <v>2.78304675523093e-08</v>
+        <v>0.0000000278304675523093</v>
       </c>
       <c r="K8" t="n">
-        <v>1.75791551250333e-09</v>
+        <v>0.00000000175791551250333</v>
       </c>
       <c r="L8" t="n">
-        <v>2.8541242750969e-08</v>
+        <v>0.000000028541242750969</v>
       </c>
       <c r="M8" t="n">
-        <v>1.44224230765267e-09</v>
+        <v>0.00000000144224230765267</v>
       </c>
       <c r="N8" t="n">
-        <v>1.86711988180217e-05</v>
+        <v>0.0000186711988180217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.4785395167098e-08</v>
+        <v>0.000000054785395167098</v>
       </c>
       <c r="B9" t="n">
-        <v>3.07839403977293e-06</v>
+        <v>0.00000307839403977293</v>
       </c>
       <c r="C9" t="n">
-        <v>5.88328935549429e-05</v>
+        <v>0.0000588328935549429</v>
       </c>
       <c r="D9" t="n">
-        <v>1.7716032501043e-07</v>
+        <v>0.00000017716032501043</v>
       </c>
       <c r="E9" t="n">
         <v>0.0509317980121859</v>
@@ -2503,28 +2503,28 @@
         <v>0.0119029280010262</v>
       </c>
       <c r="G9" t="n">
-        <v>4.72409481115998e-08</v>
+        <v>0.0000000472409481115998</v>
       </c>
       <c r="H9" t="n">
-        <v>1.60455820780202e-05</v>
+        <v>0.0000160455820780202</v>
       </c>
       <c r="I9" t="n">
-        <v>2.30326805634634e-05</v>
+        <v>0.0000230326805634634</v>
       </c>
       <c r="J9" t="n">
-        <v>3.34210642238391e-08</v>
+        <v>0.0000000334210642238391</v>
       </c>
       <c r="K9" t="n">
-        <v>1.99376552240567e-09</v>
+        <v>0.00000000199376552240567</v>
       </c>
       <c r="L9" t="n">
-        <v>3.6282873095203e-08</v>
+        <v>0.000000036282873095203</v>
       </c>
       <c r="M9" t="n">
-        <v>1.34778372763749e-09</v>
+        <v>0.00000000134778372763749</v>
       </c>
       <c r="N9" t="n">
-        <v>2.07328793306647e-05</v>
+        <v>0.0000207328793306647</v>
       </c>
     </row>
   </sheetData>
@@ -2581,28 +2581,28 @@
         <v>299</v>
       </c>
       <c r="C2" t="n">
-        <v>1.78669507991009</v>
+        <v>1.78669507990453</v>
       </c>
       <c r="D2" t="n">
-        <v>1.68508010438381</v>
+        <v>1.68508010439527</v>
       </c>
       <c r="E2" t="n">
-        <v>1.59058179426467</v>
+        <v>1.59058179426169</v>
       </c>
       <c r="F2" t="n">
-        <v>1.5022438608625</v>
+        <v>1.50224386086062</v>
       </c>
       <c r="G2" t="n">
-        <v>1.41952686927406</v>
+        <v>1.41952686927026</v>
       </c>
       <c r="H2" t="n">
-        <v>1.34182491428617</v>
+        <v>1.3418249142863</v>
       </c>
       <c r="I2" t="n">
-        <v>1.26865741255076</v>
+        <v>1.26865741255181</v>
       </c>
       <c r="J2" t="n">
-        <v>1.19938996448103</v>
+        <v>1.19938996448294</v>
       </c>
     </row>
     <row r="3">
@@ -2613,28 +2613,28 @@
         <v>345</v>
       </c>
       <c r="C3" t="n">
-        <v>0.972726853795955</v>
+        <v>0.972726853755709</v>
       </c>
       <c r="D3" t="n">
-        <v>1.03038052660115</v>
+        <v>1.03038052671808</v>
       </c>
       <c r="E3" t="n">
-        <v>1.08399638989192</v>
+        <v>1.08399638987649</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13411701703124</v>
+        <v>1.13411701702651</v>
       </c>
       <c r="G3" t="n">
-        <v>1.18104847158074</v>
+        <v>1.18104847145294</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22513452120685</v>
+        <v>1.22513452122154</v>
       </c>
       <c r="I3" t="n">
-        <v>1.26664784305239</v>
+        <v>1.26664784307594</v>
       </c>
       <c r="J3" t="n">
-        <v>1.30594837685953</v>
+        <v>1.30594837689148</v>
       </c>
     </row>
     <row r="4">
@@ -2645,28 +2645,28 @@
         <v>388</v>
       </c>
       <c r="C4" t="n">
-        <v>0.452373845526514</v>
+        <v>0.452373845469342</v>
       </c>
       <c r="D4" t="n">
-        <v>0.592424270231531</v>
+        <v>0.592424270396104</v>
       </c>
       <c r="E4" t="n">
-        <v>0.722666179692826</v>
+        <v>0.722666179671446</v>
       </c>
       <c r="F4" t="n">
-        <v>0.84441757523214</v>
+        <v>0.844417575226209</v>
       </c>
       <c r="G4" t="n">
-        <v>0.958421934235705</v>
+        <v>0.958421934050564</v>
       </c>
       <c r="H4" t="n">
-        <v>1.06551433272026</v>
+        <v>1.06551433274239</v>
       </c>
       <c r="I4" t="n">
-        <v>1.16635714262862</v>
+        <v>1.16635714266354</v>
       </c>
       <c r="J4" t="n">
-        <v>1.26182471973754</v>
+        <v>1.26182471978457</v>
       </c>
     </row>
     <row r="5">
@@ -2677,28 +2677,28 @@
         <v>299</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0336950799100935</v>
+        <v>0.0336950799045332</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0159198956161875</v>
+        <v>-0.0159198956047266</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0234182057353256</v>
+        <v>-0.0234182057383092</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.032756139137502</v>
+        <v>-0.0327561391393794</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0134731307259417</v>
+        <v>-0.0134731307297429</v>
       </c>
       <c r="H5" t="n">
-        <v>0.051824914286172</v>
+        <v>0.0518249142863041</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0376574125507643</v>
+        <v>0.0376574125518125</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.0376100355189741</v>
+        <v>-0.0376100355170581</v>
       </c>
     </row>
     <row r="6">
@@ -2709,28 +2709,28 @@
         <v>345</v>
       </c>
       <c r="C6" t="n">
-        <v>0.016726853795955</v>
+        <v>0.0167268537557091</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.000619473398844939</v>
+        <v>-0.000619473281922911</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.00600361010808248</v>
+        <v>-0.00600361012351347</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0178829829687597</v>
+        <v>-0.0178829829734923</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0169515284192594</v>
+        <v>-0.0169515285470629</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0101345212068495</v>
+        <v>0.0101345212215447</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00764784305238675</v>
+        <v>0.00764784307594302</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00694837685953043</v>
+        <v>0.00694837689147554</v>
       </c>
     </row>
     <row r="7">
@@ -2741,28 +2741,28 @@
         <v>388</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0126261544734864</v>
+        <v>-0.0126261545306579</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00942427023153114</v>
+        <v>0.00942427039610372</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0146661796928258</v>
+        <v>0.0146661796714463</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00641757523213993</v>
+        <v>0.006417575226209</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.00357806576429509</v>
+        <v>-0.00357806594943633</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0164856672797364</v>
+        <v>-0.016485667257613</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0246428573713826</v>
+        <v>-0.0246428573364639</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0268247197375366</v>
+        <v>0.0268247197845688</v>
       </c>
     </row>
   </sheetData>
@@ -2819,28 +2819,28 @@
         <v>299</v>
       </c>
       <c r="C2" t="n">
-        <v>1.78669507991009</v>
+        <v>1.78669507990453</v>
       </c>
       <c r="D2" t="n">
-        <v>1.68508010438381</v>
+        <v>1.68508010439527</v>
       </c>
       <c r="E2" t="n">
-        <v>1.59058179426467</v>
+        <v>1.59058179426169</v>
       </c>
       <c r="F2" t="n">
-        <v>1.5022438608625</v>
+        <v>1.50224386086062</v>
       </c>
       <c r="G2" t="n">
-        <v>1.41952686927406</v>
+        <v>1.41952686927026</v>
       </c>
       <c r="H2" t="n">
-        <v>1.34182491428617</v>
+        <v>1.3418249142863</v>
       </c>
       <c r="I2" t="n">
-        <v>1.26865741255076</v>
+        <v>1.26865741255181</v>
       </c>
       <c r="J2" t="n">
-        <v>1.19938996448103</v>
+        <v>1.19938996448294</v>
       </c>
     </row>
     <row r="3">
@@ -2851,28 +2851,28 @@
         <v>345</v>
       </c>
       <c r="C3" t="n">
-        <v>0.972726853795955</v>
+        <v>0.972726853755709</v>
       </c>
       <c r="D3" t="n">
-        <v>1.03038052660115</v>
+        <v>1.03038052671808</v>
       </c>
       <c r="E3" t="n">
-        <v>1.08399638989192</v>
+        <v>1.08399638987649</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13411701703124</v>
+        <v>1.13411701702651</v>
       </c>
       <c r="G3" t="n">
-        <v>1.18104847158074</v>
+        <v>1.18104847145294</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22513452120685</v>
+        <v>1.22513452122154</v>
       </c>
       <c r="I3" t="n">
-        <v>1.26664784305239</v>
+        <v>1.26664784307594</v>
       </c>
       <c r="J3" t="n">
-        <v>1.30594837685953</v>
+        <v>1.30594837689148</v>
       </c>
     </row>
     <row r="4">
@@ -2883,28 +2883,28 @@
         <v>388</v>
       </c>
       <c r="C4" t="n">
-        <v>0.452373845526514</v>
+        <v>0.452373845469342</v>
       </c>
       <c r="D4" t="n">
-        <v>0.592424270231531</v>
+        <v>0.592424270396104</v>
       </c>
       <c r="E4" t="n">
-        <v>0.722666179692826</v>
+        <v>0.722666179671446</v>
       </c>
       <c r="F4" t="n">
-        <v>0.84441757523214</v>
+        <v>0.844417575226209</v>
       </c>
       <c r="G4" t="n">
-        <v>0.958421934235705</v>
+        <v>0.958421934050564</v>
       </c>
       <c r="H4" t="n">
-        <v>1.06551433272026</v>
+        <v>1.06551433274239</v>
       </c>
       <c r="I4" t="n">
-        <v>1.16635714262862</v>
+        <v>1.16635714266354</v>
       </c>
       <c r="J4" t="n">
-        <v>1.26182471973754</v>
+        <v>1.26182471978457</v>
       </c>
     </row>
     <row r="5">
@@ -2915,28 +2915,28 @@
         <v>299</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0192213804393003</v>
+        <v>0.0192213804361285</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.00935913910416664</v>
+        <v>-0.00935913909742894</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0145094211495202</v>
+        <v>-0.0145094211513688</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0213395043241055</v>
+        <v>-0.0213395043253286</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.00940204516813796</v>
+        <v>-0.00940204517079056</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0401743521598232</v>
+        <v>0.0401743521599257</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0305909119015144</v>
+        <v>0.030590911902366</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.0304042324324771</v>
+        <v>-0.0304042324309281</v>
       </c>
     </row>
     <row r="6">
@@ -2947,28 +2947,28 @@
         <v>345</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0174967089915847</v>
+        <v>0.0174967089494866</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.00060084713757996</v>
+        <v>-0.000600847024173532</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.00550789918172705</v>
+        <v>-0.00550789919588392</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0155234227159372</v>
+        <v>-0.0155234227200454</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0141498567773451</v>
+        <v>-0.0141498568840258</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00834116971757164</v>
+        <v>0.0083411697296664</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00607453776996565</v>
+        <v>0.00607453778867595</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00534901990725976</v>
+        <v>0.00534901993185184</v>
       </c>
     </row>
     <row r="7">
@@ -2979,28 +2979,28 @@
         <v>388</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0271530203730891</v>
+        <v>-0.0271530204960385</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0161651290420774</v>
+        <v>0.0161651293243632</v>
       </c>
       <c r="E7" t="n">
-        <v>0.020714943068963</v>
+        <v>0.020714943038766</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00765820433429586</v>
+        <v>0.00765820432721838</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.00371940308138783</v>
+        <v>-0.00371940327384234</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.015236291386078</v>
+        <v>-0.0152362913656313</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0206908961976344</v>
+        <v>-0.0206908961683156</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0217204208401106</v>
+        <v>0.0217204208781934</v>
       </c>
     </row>
   </sheetData>
